--- a/environments/env1/Network_Validation.xlsx
+++ b/environments/env1/Network_Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1085122\Documents\Scripts\Microsoft\Automation_Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DC375F-2547-48F8-80B8-A48F19610719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{8BA8C8CB-4E57-4F8C-91FE-E22AF1587D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6158F45-8ACC-4F76-944D-A8B1936D7F7C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nslookup" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Hostname</t>
   </si>
   <si>
-    <t>Google.com</t>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
     <t>Protocol</t>
   </si>
   <si>
@@ -73,23 +66,29 @@
     <t>Port Number</t>
   </si>
   <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>Localhost</t>
+    <t>source-dns-name</t>
+  </si>
+  <si>
+    <t>target-dns-name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF292827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,10 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,29 +455,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -487,40 +486,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6AD39-AAFF-477C-9C51-59ADEA35B1BF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1433</v>
@@ -528,6 +529,26 @@
       <c r="D2" s="1">
         <v>1433</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3389</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -537,49 +558,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B09D4CF-10F1-41F3-98FF-B29764BA33F2}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1433</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
         <v>443</v>
       </c>
     </row>
@@ -858,15 +903,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3AAA99D-4A5F-4B1F-8C5A-BD0A35234D4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3AAA99D-4A5F-4B1F-8C5A-BD0A35234D4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F394BDC0-C102-42CD-A7E1-D411BC5519FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F394BDC0-C102-42CD-A7E1-D411BC5519FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f3541473-4e72-4c17-b1a6-32770bb766bd"/>
+    <ds:schemaRef ds:uri="31d963b9-1180-4647-93d7-d11aa08e2421"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABE6606-31EE-49C5-BCFA-7E787B06830A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABE6606-31EE-49C5-BCFA-7E787B06830A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="31d963b9-1180-4647-93d7-d11aa08e2421"/>
+    <ds:schemaRef ds:uri="f3541473-4e72-4c17-b1a6-32770bb766bd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/environments/env1/Network_Validation.xlsx
+++ b/environments/env1/Network_Validation.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/Network validation Outputs/Ran in DMA vm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{8BA8C8CB-4E57-4F8C-91FE-E22AF1587D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6158F45-8ACC-4F76-944D-A8B1936D7F7C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{30A75E5D-8A03-44C6-92CD-F6BB3FB4DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857870C8-1EB2-45C4-AB10-078F0D8CC162}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" activeTab="5" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nslookup" sheetId="1" r:id="rId1"/>
-    <sheet name="Windows_firewall" sheetId="3" r:id="rId2"/>
-    <sheet name="Test-Connection" sheetId="2" r:id="rId3"/>
+    <sheet name="Network_Diagnostic" sheetId="4" r:id="rId2"/>
+    <sheet name="Infra_validation" sheetId="5" r:id="rId3"/>
+    <sheet name="Windows_firewall" sheetId="3" r:id="rId4"/>
+    <sheet name="Test-Connection" sheetId="2" r:id="rId5"/>
+    <sheet name="Check_Diskspace" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,46 +40,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Hostname</t>
   </si>
   <si>
+    <t>Port Number</t>
+  </si>
+  <si>
+    <t>Inbound ports</t>
+  </si>
+  <si>
+    <t>Outbond Ports</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
     <t>Protocol</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Inbound ports</t>
-  </si>
-  <si>
-    <t>Outbond Ports</t>
-  </si>
-  <si>
-    <t>UDP</t>
+    <t>Computer Name</t>
   </si>
   <si>
     <t>Any</t>
   </si>
   <si>
-    <t>Computer Name</t>
-  </si>
-  <si>
-    <t>Port Number</t>
-  </si>
-  <si>
-    <t>source-dns-name</t>
-  </si>
-  <si>
-    <t>target-dns-name</t>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Source_IP</t>
+  </si>
+  <si>
+    <t>Destination_IP</t>
+  </si>
+  <si>
+    <t>TargetResourceId</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>Tcp</t>
+  </si>
+  <si>
+    <t>DestinationPort</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>ResourceGroup_Name</t>
+  </si>
+  <si>
+    <t>VM_Name</t>
+  </si>
+  <si>
+    <t>Target5wt5hnnb4</t>
+  </si>
+  <si>
+    <t>72f988bf-86f1-41af-91ab-2d7cd011db47</t>
+  </si>
+  <si>
+    <t>cbb956ec-6c04-42ae-8428-91d91154f780</t>
+  </si>
+  <si>
+    <t>/subscriptions/cbb956ec-6c04-42ae-8428-91d91154f780/resourceGroups/sqlvm-demo-rg/providers/Microsoft.Compute/virtualMachines/Target5wt5hnnb4</t>
+  </si>
+  <si>
+    <t>eastus</t>
+  </si>
+  <si>
+    <t>sqlvm-demo-rg</t>
+  </si>
+  <si>
+    <t>10.2.0.5</t>
+  </si>
+  <si>
+    <t>Source5wt5hnnb4</t>
+  </si>
+  <si>
+    <t>10.2.0.6</t>
+  </si>
+  <si>
+    <t>Server_IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +149,30 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF292827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF292827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF292827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FF292827"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -105,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,16 +215,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,15 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD242FC-1952-4B5C-BAB8-41DF68E7245D}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -468,15 +580,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -485,43 +603,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6AD39-AAFF-477C-9C51-59ADEA35B1BF}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5582E0D5-161D-4082-BFFE-1A2DF5FC8F2C}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>3389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033D5343-1AF2-414D-88ED-254ABDF44705}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6AD39-AAFF-477C-9C51-59ADEA35B1BF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1433</v>
@@ -532,10 +794,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>3389</v>
@@ -543,12 +805,6 @@
       <c r="D3" s="1">
         <v>3389</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -556,17 +812,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B09D4CF-10F1-41F3-98FF-B29764BA33F2}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -574,58 +830,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="1">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="1">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
         <v>3389</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -634,312 +874,33 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC4F5606B695A84A87B74917185224FA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4562bb72cc5d364cc570a04c55e69020">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f3541473-4e72-4c17-b1a6-32770bb766bd" xmlns:ns3="31d963b9-1180-4647-93d7-d11aa08e2421" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4f21fe60f6ca6202c71de25390a5b46" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="f3541473-4e72-4c17-b1a6-32770bb766bd"/>
-    <xsd:import namespace="31d963b9-1180-4647-93d7-d11aa08e2421"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDocTags" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="15" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="16" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3541473-4e72-4c17-b1a6-32770bb766bd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="10" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDocTags" ma:index="20" nillable="true" ma:displayName="MediaServiceDocTags" ma:hidden="true" ma:internalName="MediaServiceDocTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e385fb40-52d4-4fae-9c5b-3e8ff8a5878e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="31d963b9-1180-4647-93d7-d11aa08e2421" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c200b8a8-7722-4866-9ef1-0499ba3ec9e1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="31d963b9-1180-4647-93d7-d11aa08e2421">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="31d963b9-1180-4647-93d7-d11aa08e2421" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3541473-4e72-4c17-b1a6-32770bb766bd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3AAA99D-4A5F-4B1F-8C5A-BD0A35234D4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F394BDC0-C102-42CD-A7E1-D411BC5519FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f3541473-4e72-4c17-b1a6-32770bb766bd"/>
-    <ds:schemaRef ds:uri="31d963b9-1180-4647-93d7-d11aa08e2421"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABE6606-31EE-49C5-BCFA-7E787B06830A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="31d963b9-1180-4647-93d7-d11aa08e2421"/>
-    <ds:schemaRef ds:uri="f3541473-4e72-4c17-b1a6-32770bb766bd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6386A01B-263E-4F61-A10C-DDE2FCDE45FB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/environments/env1/Network_Validation.xlsx
+++ b/environments/env1/Network_Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/Network validation Outputs/Ran in DMA vm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{30A75E5D-8A03-44C6-92CD-F6BB3FB4DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB38F83E-F425-4A8D-8700-63DAADB8F1E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95B6ECF-3ED2-429A-873A-18B11425F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" activeTab="4" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" firstSheet="4" activeTab="5" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nslookup" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Test-Connection" sheetId="2" r:id="rId5"/>
     <sheet name="Check_Diskspace" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,106 +41,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Hostname</t>
   </si>
   <si>
+    <t>target server dns name</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Source_IP</t>
+  </si>
+  <si>
+    <t>Destination_IP</t>
+  </si>
+  <si>
+    <t>DestinationPort</t>
+  </si>
+  <si>
+    <t>TargetResourceId</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>Tcp</t>
+  </si>
+  <si>
+    <t>source server private ip address</t>
+  </si>
+  <si>
+    <t>target server private ip address</t>
+  </si>
+  <si>
+    <t>/subscriptions/{SubscriptionID}/resourceGroups/{resourcegroupname}/providers/Microsoft.Compute/virtualMachines/{target vm name}</t>
+  </si>
+  <si>
+    <t>eastus</t>
+  </si>
+  <si>
+    <t>Tenant id</t>
+  </si>
+  <si>
+    <t>ResourceGroup_Name</t>
+  </si>
+  <si>
+    <t>VM_Name</t>
+  </si>
+  <si>
+    <t>resourcegroupname</t>
+  </si>
+  <si>
+    <t>target vm name</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Inbound ports</t>
+  </si>
+  <si>
+    <t>Outbond Ports</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Computer Name</t>
+  </si>
+  <si>
     <t>Port Number</t>
   </si>
   <si>
-    <t>Inbound ports</t>
-  </si>
-  <si>
-    <t>Outbond Ports</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>Computer Name</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Source_IP</t>
-  </si>
-  <si>
-    <t>Destination_IP</t>
-  </si>
-  <si>
-    <t>TargetResourceId</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Inbound</t>
-  </si>
-  <si>
-    <t>Tcp</t>
-  </si>
-  <si>
-    <t>DestinationPort</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Subscription</t>
-  </si>
-  <si>
-    <t>ResourceGroup_Name</t>
-  </si>
-  <si>
-    <t>VM_Name</t>
-  </si>
-  <si>
-    <t>72f988bf-86f1-41af-91ab-2d7cd011db47</t>
-  </si>
-  <si>
-    <t>cbb956ec-6c04-42ae-8428-91d91154f780</t>
-  </si>
-  <si>
-    <t>eastus</t>
-  </si>
-  <si>
     <t>Server_IP</t>
-  </si>
-  <si>
-    <t>10.3.0.4</t>
-  </si>
-  <si>
-    <t>Target3ruy7ue66</t>
-  </si>
-  <si>
-    <t>10.2.0.4</t>
-  </si>
-  <si>
-    <t>/subscriptions/cbb956ec-6c04-42ae-8428-91d91154f780/resourceGroups/sqlvm-demo-rg2/providers/Microsoft.Compute/virtualMachines/Target3ruy7ue66</t>
-  </si>
-  <si>
-    <t>sqlvm-demo-rg2</t>
-  </si>
-  <si>
-    <t>target3ruy7ue66.eastus.cloudapp.azure.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,16 +164,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF292827"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF292827"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,12 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,30 +544,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="26.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="26.25">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" ht="26.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="26.25">
       <c r="A5" s="5"/>
     </row>
   </sheetData>
@@ -593,10 +581,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -608,62 +596,62 @@
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3389</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -678,10 +666,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
@@ -689,41 +677,41 @@
     <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.25">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="26.25">
       <c r="B5" s="5"/>
     </row>
   </sheetData>
@@ -741,7 +729,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -750,26 +738,26 @@
     <col min="5" max="5" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>1433</v>
@@ -778,12 +766,12 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>3389</v>
@@ -802,11 +790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B09D4CF-10F1-41F3-98FF-B29764BA33F2}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -814,25 +802,25 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>1433</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
+    <row r="3" spans="1:2" ht="26.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3389</v>
@@ -848,23 +836,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6386A01B-263E-4F61-A10C-DDE2FCDE45FB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/environments/env1/Network_Validation.xlsx
+++ b/environments/env1/Network_Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/Network validation Outputs/Ran in DMA vm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/sample input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95B6ECF-3ED2-429A-873A-18B11425F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F95B6ECF-3ED2-429A-873A-18B11425F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC45F1AA-3340-4609-A92A-6658C203EE48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" firstSheet="4" activeTab="5" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" activeTab="5" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nslookup" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -91,9 +90,6 @@
     <t>/subscriptions/{SubscriptionID}/resourceGroups/{resourcegroupname}/providers/Microsoft.Compute/virtualMachines/{target vm name}</t>
   </si>
   <si>
-    <t>eastus</t>
-  </si>
-  <si>
     <t>Tenant id</t>
   </si>
   <si>
@@ -131,13 +127,16 @@
   </si>
   <si>
     <t>Server_IP</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,30 +543,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="26.25">
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25">
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="26.25">
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="26.25">
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
   </sheetData>
@@ -580,11 +579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5582E0D5-161D-4082-BFFE-1A2DF5FC8F2C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -596,7 +595,7 @@
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -625,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -645,10 +644,10 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
@@ -669,7 +668,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
@@ -677,12 +676,12 @@
     <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -691,27 +690,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25">
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25">
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25">
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
     </row>
   </sheetData>
@@ -729,7 +728,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -738,26 +737,26 @@
     <col min="5" max="5" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>1433</v>
@@ -766,12 +765,12 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>3389</v>
@@ -794,7 +793,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -802,15 +801,15 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.25">
+    </row>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -818,7 +817,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25">
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -840,17 +839,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>

--- a/environments/env1/Network_Validation.xlsx
+++ b/environments/env1/Network_Validation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/v-sameerkul_microsoft_com/Documents/Desktop/SQL migration/sample input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sameerku\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F95B6ECF-3ED2-429A-873A-18B11425F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC45F1AA-3340-4609-A92A-6658C203EE48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0C854-71A8-4FAD-B5AA-88715D6C00E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" activeTab="5" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" xr2:uid="{4A5AA5E5-3613-4F38-A644-E7C5FBEDD97E}"/>
   </bookViews>
   <sheets>
     <sheet name="Nslookup" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Infra_validation" sheetId="5" r:id="rId3"/>
     <sheet name="Windows_firewall" sheetId="3" r:id="rId4"/>
     <sheet name="Test-Connection" sheetId="2" r:id="rId5"/>
-    <sheet name="Check_Diskspace" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Hostname</t>
   </si>
@@ -124,9 +123,6 @@
   </si>
   <si>
     <t>Port Number</t>
-  </si>
-  <si>
-    <t>Server_IP</t>
   </si>
   <si>
     <t>location</t>
@@ -539,13 +535,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD242FC-1952-4B5C-BAB8-41DF68E7245D}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -579,20 +575,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5582E0D5-161D-4082-BFFE-1A2DF5FC8F2C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="141.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="126.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -665,15 +661,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +721,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,12 +786,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -831,35 +827,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6386A01B-263E-4F61-A10C-DDE2FCDE45FB}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
